--- a/DATA_goal/Junction_Flooding_468.xlsx
+++ b/DATA_goal/Junction_Flooding_468.xlsx
@@ -655,103 +655,103 @@
         <v>44799.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="F2" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="N2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="O2" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>60.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -759,52 +759,52 @@
         <v>44799.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0</v>
@@ -813,49 +813,49 @@
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.85</v>
       </c>
       <c r="U3" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.24</v>
       </c>
-      <c r="V3" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.57</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44799.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.55</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.41</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.22</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.85</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44799.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.61</v>
+        <v>16.13</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>66.84999999999999</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>8.960000000000001</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_468.xlsx
+++ b/DATA_goal/Junction_Flooding_468.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44799.54861111111</v>
+        <v>45149.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44799.55555555555</v>
+        <v>45149.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.22</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.02</v>
+        <v>8.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.26</v>
+        <v>1.669</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.06</v>
+        <v>25.493</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.4</v>
+        <v>21.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.69</v>
+        <v>39.208</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>6.226</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.51</v>
+        <v>9.461</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.01</v>
+        <v>10.235</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.41</v>
+        <v>10.637</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.021</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.22</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.231</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>8.089</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.591</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.926</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>135.754</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.41</v>
+        <v>26.395</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.29</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>17.438</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.93</v>
+        <v>9.336</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.67</v>
+        <v>18.485</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.61</v>
+        <v>6.982</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.58</v>
+        <v>10.635</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.57</v>
+        <v>35.483</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.34</v>
+        <v>4.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.88</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44799.5625</v>
+        <v>45149.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.88</v>
+        <v>13.932</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.01</v>
+        <v>10.016</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.26</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.55</v>
+        <v>29.895</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.1</v>
+        <v>24.744</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.97</v>
+        <v>10.964</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.5</v>
+        <v>42.703</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.99</v>
+        <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.38</v>
+        <v>7.365</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.42</v>
+        <v>11.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.91</v>
+        <v>12.059</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.93</v>
+        <v>12.575</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.41</v>
+        <v>3.502</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.5</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.71</v>
+        <v>15.423</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>1.065</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.735</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21</v>
+        <v>158.625</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.17</v>
+        <v>30.485</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.43</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.22</v>
+        <v>20.32</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.53</v>
+        <v>10.888</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.28</v>
+        <v>1.319</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.39</v>
+        <v>20.464</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.5</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.03</v>
+        <v>7.988</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>9.365</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.66</v>
+        <v>12.592</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.85</v>
+        <v>38.465</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.96</v>
+        <v>5.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.17</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44799.56944444445</v>
+        <v>45149.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.83</v>
+        <v>6.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.85</v>
+        <v>4.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.08</v>
+        <v>13.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.07</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.96</v>
+        <v>4.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.13</v>
+        <v>22.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.64</v>
+        <v>7.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.44</v>
+        <v>3.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.42</v>
+        <v>4.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.07</v>
+        <v>5.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.56</v>
+        <v>5.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.59</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.9</v>
+        <v>4.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.41</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.84999999999999</v>
+        <v>67.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.52</v>
+        <v>13.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.27</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.35</v>
+        <v>4.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.26</v>
+        <v>10.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.97</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.01</v>
+        <v>3.65</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.91</v>
+        <v>4.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.07</v>
+        <v>5.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.38</v>
+        <v>20.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44799.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.82</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_468.xlsx
+++ b/DATA_goal/Junction_Flooding_468.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45149.50694444445</v>
+        <v>44799.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.06</v>
+        <v>4.284</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.922</v>
+        <v>5.265</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.233</v>
+        <v>0.768</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.559</v>
+        <v>10.407</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.17</v>
+        <v>9.715</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.148</v>
+        <v>5.079</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.258</v>
+        <v>10.361</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.923</v>
+        <v>6.858</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.884</v>
+        <v>3.662</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.312</v>
+        <v>6.216</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.215</v>
+        <v>7.246</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.154</v>
+        <v>4.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.794</v>
+        <v>0.973</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.046</v>
+        <v>3.629</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.401</v>
+        <v>6.538</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.061</v>
+        <v>2.613</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.797</v>
+        <v>0.117</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.462</v>
+        <v>0.053</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>267.342</v>
+        <v>60.452</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.257</v>
+        <v>12.195</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.657</v>
+        <v>3.56</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.391</v>
+        <v>7.364</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.393</v>
+        <v>6.727</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.825</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.943</v>
+        <v>5.701</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.713</v>
+        <v>3.6</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.198</v>
+        <v>5.538</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.441</v>
+        <v>2.243</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.895</v>
+        <v>6.732</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.372</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.246</v>
+        <v>8.518000000000001</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.286</v>
+        <v>2.17</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.825</v>
+        <v>5.204</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45149.51388888889</v>
+        <v>44799.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.011</v>
+        <v>0.225</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.34</v>
+        <v>1.015</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.669</v>
+        <v>0.262</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.493</v>
+        <v>1.06</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.11</v>
+        <v>1.397</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.452</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.208</v>
+        <v>4.689</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.543</v>
+        <v>1.223</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.226</v>
+        <v>0.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.461</v>
+        <v>1.509</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.235</v>
+        <v>2.014</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.637</v>
+        <v>0.41</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.021</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.231</v>
+        <v>1.328</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.089</v>
+        <v>0.2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.591</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.926</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.754</v>
+        <v>3.85</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.395</v>
+        <v>2.412</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.676</v>
+        <v>0.291</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.438</v>
+        <v>1.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.336</v>
+        <v>1.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.1</v>
+        <v>0.176</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.485</v>
+        <v>2.669</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.663</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.982</v>
+        <v>1.612</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.162000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.635</v>
+        <v>1.575</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.237</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.483</v>
+        <v>4.565</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.786</v>
+        <v>0.338</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.847</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45149.52083333334</v>
+        <v>44799.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.932</v>
+        <v>1.875</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.016</v>
+        <v>2.008</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.255</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.895</v>
+        <v>4.547</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.744</v>
+        <v>4.099</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.964</v>
+        <v>1.973</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>42.703</v>
+        <v>6.497</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.87</v>
+        <v>2.991</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.365</v>
+        <v>1.378</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.088</v>
+        <v>2.425</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.059</v>
+        <v>2.906</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.575</v>
+        <v>1.927</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.502</v>
+        <v>0.411</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.903</v>
+        <v>1.501</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.423</v>
+        <v>2.713</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>1.329</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.065</v>
+        <v>0.011</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.735</v>
+        <v>0.008</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.625</v>
+        <v>21</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.485</v>
+        <v>5.172</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.064</v>
+        <v>1.43</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.32</v>
+        <v>3.22</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.888</v>
+        <v>2.531</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.319</v>
+        <v>0.285</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.464</v>
+        <v>3.387</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>1.505</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.988</v>
+        <v>2.033</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.365</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.592</v>
+        <v>2.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.175</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.465</v>
+        <v>5.845</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.61</v>
+        <v>0.963</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.582</v>
+        <v>2.167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45149.52777777778</v>
+        <v>44799.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.25</v>
+        <v>5.833</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.36</v>
+        <v>4.847</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.348</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.28</v>
+        <v>13.081</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11</v>
+        <v>11.067</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.92</v>
+        <v>4.965</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.52</v>
+        <v>16.133</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.56</v>
+        <v>7.643</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.441</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.88</v>
+        <v>5.424</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.41</v>
+        <v>6.07</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.55</v>
+        <v>5.561</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.423</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.593</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.9</v>
+        <v>6.996</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.28</v>
+        <v>3.904</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.046</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.116</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.09</v>
+        <v>66.84699999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.83</v>
+        <v>13.519</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.265</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>8.964</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.94</v>
+        <v>5.352</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.663</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.41</v>
+        <v>8.259</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.968</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.65</v>
+        <v>4.007</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.26</v>
+        <v>3.905</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.61</v>
+        <v>6.071</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.49</v>
+        <v>14.382</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.46</v>
+        <v>2.558</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44799.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>30.11</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>47.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>15.37</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>18.84</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>192.82</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>36.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.19</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_468.xlsx
+++ b/DATA_goal/Junction_Flooding_468.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44799.54861111111</v>
+        <v>45149.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.284</v>
+        <v>23.06</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.265</v>
+        <v>15.922</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.768</v>
+        <v>4.233</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.407</v>
+        <v>48.559</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.715</v>
+        <v>40.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.079</v>
+        <v>18.148</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.361</v>
+        <v>60.258</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.858</v>
+        <v>27.923</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.662</v>
+        <v>11.884</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.216</v>
+        <v>18.312</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.246</v>
+        <v>19.215</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.306</v>
+        <v>20.154</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.973</v>
+        <v>5.794</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.629</v>
+        <v>18.046</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.538</v>
+        <v>25.401</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.613</v>
+        <v>15.061</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.117</v>
+        <v>3.797</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.053</v>
+        <v>2.462</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.452</v>
+        <v>267.342</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.195</v>
+        <v>50.257</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>16.657</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.364</v>
+        <v>33.391</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.727</v>
+        <v>17.393</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.825</v>
+        <v>2.2</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.701</v>
+        <v>29.943</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>14.713</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.538</v>
+        <v>13.198</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.243</v>
+        <v>15.441</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.732</v>
+        <v>19.895</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.372</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.518000000000001</v>
+        <v>53.246</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>9.286</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.204</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44799.55555555555</v>
+        <v>45149.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.225</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.015</v>
+        <v>8.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.262</v>
+        <v>1.669</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.06</v>
+        <v>25.493</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.397</v>
+        <v>21.11</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>9.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.689</v>
+        <v>39.208</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.223</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.82</v>
+        <v>6.226</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.509</v>
+        <v>9.461</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.014</v>
+        <v>10.235</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.41</v>
+        <v>10.637</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>3.021</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.221</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.328</v>
+        <v>13.231</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.2</v>
+        <v>8.089</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>1.591</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.926</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.85</v>
+        <v>135.754</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.412</v>
+        <v>26.395</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.291</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.43</v>
+        <v>17.438</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.925</v>
+        <v>9.336</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.176</v>
+        <v>1.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.669</v>
+        <v>18.485</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.5590000000000001</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.612</v>
+        <v>6.982</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.21</v>
+        <v>8.162000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.575</v>
+        <v>10.635</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.237</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.565</v>
+        <v>35.483</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.338</v>
+        <v>4.786</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.879</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44799.5625</v>
+        <v>45149.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.875</v>
+        <v>13.932</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.008</v>
+        <v>10.016</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.255</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.547</v>
+        <v>29.895</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.099</v>
+        <v>24.744</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.973</v>
+        <v>10.964</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.497</v>
+        <v>42.703</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.991</v>
+        <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.378</v>
+        <v>7.365</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.425</v>
+        <v>11.088</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.906</v>
+        <v>12.059</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.927</v>
+        <v>12.575</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.411</v>
+        <v>3.502</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.501</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.713</v>
+        <v>15.423</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.329</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.011</v>
+        <v>1.065</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.008</v>
+        <v>0.735</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>21</v>
+        <v>158.625</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.172</v>
+        <v>30.485</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.43</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.22</v>
+        <v>20.32</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.531</v>
+        <v>10.888</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.285</v>
+        <v>1.319</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.387</v>
+        <v>20.464</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.505</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.033</v>
+        <v>7.988</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>9.365</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.66</v>
+        <v>12.592</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.175</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.845</v>
+        <v>38.465</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.963</v>
+        <v>5.61</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.167</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44799.56944444445</v>
+        <v>45149.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.833</v>
+        <v>6.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.847</v>
+        <v>4.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.348</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.081</v>
+        <v>13.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.067</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.965</v>
+        <v>4.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.133</v>
+        <v>22.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.643</v>
+        <v>7.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.441</v>
+        <v>3.26</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.424</v>
+        <v>4.88</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.07</v>
+        <v>5.41</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.561</v>
+        <v>5.55</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.423</v>
+        <v>1.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.593</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.996</v>
+        <v>6.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.904</v>
+        <v>4.28</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.046</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.116</v>
+        <v>0.41</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.84699999999999</v>
+        <v>67.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.519</v>
+        <v>13.83</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.265</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>8.964</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.352</v>
+        <v>4.94</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.663</v>
+        <v>0.55</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.259</v>
+        <v>10.41</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.968</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.007</v>
+        <v>3.65</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.905</v>
+        <v>4.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.071</v>
+        <v>5.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.138</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.382</v>
+        <v>20.49</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.558</v>
+        <v>2.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.639</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44799.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>36.18</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>30.11</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>47.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.44</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>192.82</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>36.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>42.88</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.19</v>
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>
